--- a/database/seeders/excel/user_dummy.xlsx
+++ b/database/seeders/excel/user_dummy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadnajmibinsidek/Developer/niise-helpdesk/backend/database/seeders/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A241DC-F04A-FF43-A831-B4530BFA2E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D0FF82-F0EF-0346-B2F0-8089D0C29465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="116">
   <si>
     <t>Ahmad Najmi bin Sidek</t>
   </si>
@@ -353,6 +353,21 @@
   </si>
   <si>
     <t>CONTRACTOR</t>
+  </si>
+  <si>
+    <t>UTC KELANTAN</t>
+  </si>
+  <si>
+    <t>UTC MELAKA</t>
+  </si>
+  <si>
+    <t>UTC SEREMBAN</t>
+  </si>
+  <si>
+    <t>LT KUANTAN</t>
+  </si>
+  <si>
+    <t>LT PULAU REDANG</t>
   </si>
 </sst>
 </file>
@@ -805,7 +820,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1064,6 +1079,9 @@
       <c r="E12">
         <v>129876543</v>
       </c>
+      <c r="F12" t="s">
+        <v>111</v>
+      </c>
       <c r="G12" s="5" t="s">
         <v>5</v>
       </c>
@@ -1084,6 +1102,9 @@
       <c r="E13">
         <v>138765432</v>
       </c>
+      <c r="F13" t="s">
+        <v>112</v>
+      </c>
       <c r="G13" s="5" t="s">
         <v>5</v>
       </c>
@@ -1104,6 +1125,9 @@
       <c r="E14">
         <v>147654321</v>
       </c>
+      <c r="F14" t="s">
+        <v>113</v>
+      </c>
       <c r="G14" s="5" t="s">
         <v>5</v>
       </c>
@@ -1124,6 +1148,9 @@
       <c r="E15">
         <v>156543210</v>
       </c>
+      <c r="F15" t="s">
+        <v>114</v>
+      </c>
       <c r="G15" s="5" t="s">
         <v>5</v>
       </c>
@@ -1143,6 +1170,9 @@
       </c>
       <c r="E16">
         <v>165432109</v>
+      </c>
+      <c r="F16" t="s">
+        <v>115</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>5</v>
